--- a/pseudo_evaluation/user_pseudocode_scores.xlsx
+++ b/pseudo_evaluation/user_pseudocode_scores.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pseudo_evaluation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912E0389-6784-45BD-8E95-4229196C60A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -166,53 +160,47 @@
     <t>{'0': 'print("Hello World")', '1': 'result = a + b', '2': 'isPrime = true; for(i = 2; i &lt;= sqrt(n); i++) { if(n % i == 0) { return false } } return true', '3': 'if(n % 2 != 0) return true else return false'}</t>
   </si>
   <si>
-    <t>[10, 8, 7, 10]</t>
-  </si>
-  <si>
-    <t>[10, 8, 8, 6]</t>
-  </si>
-  <si>
-    <t>[5, 10, 6, 5]</t>
-  </si>
-  <si>
-    <t>[10, 5, 5, 8]</t>
-  </si>
-  <si>
-    <t>[9, 5, 8, 6]</t>
-  </si>
-  <si>
-    <t>[10, 8, 7, 8]</t>
+    <t>[10, 8, 9, 9]</t>
   </si>
   <si>
     <t>[10, 8, 8, 10]</t>
   </si>
   <si>
-    <t>[7, 8, 8, 8]</t>
-  </si>
-  <si>
-    <t>[10, 10, 10, 7]</t>
-  </si>
-  <si>
-    <t>[10, 10, 8, 10]</t>
-  </si>
-  <si>
-    <t>[10, 10, 8, 8]</t>
-  </si>
-  <si>
-    <t>[10, 8, 9, 10]</t>
-  </si>
-  <si>
-    <t>[8, 10, 6, 7]</t>
-  </si>
-  <si>
-    <t>[10, 10, 7, 10]</t>
+    <t>[10, 9, 9, 9]</t>
+  </si>
+  <si>
+    <t>[10, 9, 8, 8]</t>
+  </si>
+  <si>
+    <t>[9, 8, 8, 10]</t>
+  </si>
+  <si>
+    <t>[9, 8, 9, 8]</t>
+  </si>
+  <si>
+    <t>[9, 10, 9, 8]</t>
+  </si>
+  <si>
+    <t>[10, 10, 9, 8]</t>
+  </si>
+  <si>
+    <t>[8, 9, 9, 9]</t>
+  </si>
+  <si>
+    <t>[10, 8, 8, 9]</t>
+  </si>
+  <si>
+    <t>[9, 10, 8, 8]</t>
+  </si>
+  <si>
+    <t>[8, 10, 8, 9]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,21 +263,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -361,7 +341,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,10 +375,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,16 +550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -618,10 +594,10 @@
         <v>48</v>
       </c>
       <c r="F2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -638,10 +614,10 @@
         <v>49</v>
       </c>
       <c r="F3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -658,10 +634,10 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -678,10 +654,10 @@
         <v>51</v>
       </c>
       <c r="F5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -698,10 +674,10 @@
         <v>52</v>
       </c>
       <c r="F6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -718,10 +694,10 @@
         <v>53</v>
       </c>
       <c r="F7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -741,7 +717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -758,10 +734,10 @@
         <v>55</v>
       </c>
       <c r="F9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -778,10 +754,10 @@
         <v>56</v>
       </c>
       <c r="F10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -798,10 +774,10 @@
         <v>57</v>
       </c>
       <c r="F11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -818,10 +794,10 @@
         <v>58</v>
       </c>
       <c r="F12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -838,10 +814,10 @@
         <v>59</v>
       </c>
       <c r="F13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -855,13 +831,13 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -875,7 +851,7 @@
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>37</v>
